--- a/data/SAH/example.xlsx
+++ b/data/SAH/example.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wenao\Downloads\TOP-GPM-main(2)\TOP-GPM-main\data\SAH\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wenao\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62E2BE6D-12B4-4579-BC57-F6779093030F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A41FC863-B2F0-4165-A97B-38232C90DB6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,18 +42,6 @@
     <t>path</t>
   </si>
   <si>
-    <t>./imaging_data/patient 1.nii.gz</t>
-  </si>
-  <si>
-    <t>./imaging_data/patient 2.nii.gz</t>
-  </si>
-  <si>
-    <t>./imaging_data/patient 3.nii.gz</t>
-  </si>
-  <si>
-    <t>./imaging_data/patient 4.nii.gz</t>
-  </si>
-  <si>
     <t>mu0</t>
   </si>
   <si>
@@ -106,6 +94,18 @@
   </si>
   <si>
     <t>Aneurysm size</t>
+  </si>
+  <si>
+    <t>./data/SAH/imaging_data/patient 1.nii.gz</t>
+  </si>
+  <si>
+    <t>./data/SAH/imaging_data/patient 2.nii.gz</t>
+  </si>
+  <si>
+    <t>./data/SAH/imaging_data/patient 3.nii.gz</t>
+  </si>
+  <si>
+    <t>./data/SAH/imaging_data/patient 4.nii.gz</t>
   </si>
 </sst>
 </file>
@@ -429,7 +429,7 @@
   <dimension ref="A1:W10"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="R9" sqref="R9"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -445,61 +445,61 @@
         <v>3</v>
       </c>
       <c r="D1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F1" t="s">
         <v>4</v>
       </c>
       <c r="G1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O1" t="s">
         <v>12</v>
       </c>
-      <c r="H1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="P1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>14</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
         <v>19</v>
       </c>
-      <c r="K1" t="s">
-        <v>13</v>
-      </c>
-      <c r="L1" t="s">
-        <v>14</v>
-      </c>
-      <c r="M1" t="s">
-        <v>15</v>
-      </c>
-      <c r="N1" t="s">
+      <c r="U1" t="s">
         <v>20</v>
       </c>
-      <c r="O1" t="s">
-        <v>16</v>
-      </c>
-      <c r="P1" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>18</v>
-      </c>
-      <c r="R1" t="s">
+      <c r="V1" t="s">
         <v>21</v>
       </c>
-      <c r="S1" t="s">
+      <c r="W1" t="s">
         <v>22</v>
-      </c>
-      <c r="T1" t="s">
-        <v>23</v>
-      </c>
-      <c r="U1" t="s">
-        <v>24</v>
-      </c>
-      <c r="V1" t="s">
-        <v>25</v>
-      </c>
-      <c r="W1" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
@@ -519,7 +519,7 @@
         <v>2</v>
       </c>
       <c r="F2" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="I2" t="s">
         <v>2</v>
@@ -584,7 +584,7 @@
         <v>2</v>
       </c>
       <c r="F3" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="I3" t="s">
         <v>2</v>
@@ -649,7 +649,7 @@
         <v>2</v>
       </c>
       <c r="F4" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="I4" t="s">
         <v>2</v>
@@ -714,7 +714,7 @@
         <v>2</v>
       </c>
       <c r="F5" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="I5" t="s">
         <v>2</v>
